--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/70.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/70.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2261203978164504</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.321018435612085</v>
+        <v>-1.320568740800085</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1641376503958502</v>
+        <v>-0.1652356065602135</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1273604990339509</v>
+        <v>-0.1278364747115872</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2498023492458739</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388649323231067</v>
+        <v>-1.388596761499794</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2317072159950138</v>
+        <v>-0.2328533537463771</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1326137520650404</v>
+        <v>-0.1328882411061313</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2735673708918097</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491541832293585</v>
+        <v>-1.491724338304948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2791339581320011</v>
+        <v>-0.2798946431873645</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1373530681681301</v>
+        <v>-0.13761003663213</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2808703817428133</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.641815822002272</v>
+        <v>-1.642664109943089</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2906581177135434</v>
+        <v>-0.291080071611816</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1481515838484908</v>
+        <v>-0.148243566878218</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2668480541974202</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.735930521942246</v>
+        <v>-1.737143821905791</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2892491713058166</v>
+        <v>-0.2898156699650891</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1674577997545765</v>
+        <v>-0.1670562865295766</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2361101117060692</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57640274743338</v>
+        <v>-1.57746274234738</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.222460731435289</v>
+        <v>-0.222749820957289</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1756369891598471</v>
+        <v>-0.1748660837678473</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2012611492073597</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419595042517877</v>
+        <v>-1.420214102908422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1450373012705825</v>
+        <v>-0.145510356852037</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1538968730862165</v>
+        <v>-0.1535610620253075</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1709384370554718</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.149934380463676</v>
+        <v>-1.150665864557222</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002719113609257128</v>
+        <v>-0.003450597702802386</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1320224325882224</v>
+        <v>-0.1315566772472225</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1459877187836889</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7808123223605936</v>
+        <v>-0.7808444434185936</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08272728081499266</v>
+        <v>0.08239438985026547</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1191959101095895</v>
+        <v>-0.1186191911136805</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1211662148086957</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4085351003330572</v>
+        <v>-0.4074897058999666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1278909484110714</v>
+        <v>0.1268732948917081</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07454909953769238</v>
+        <v>-0.07405852337914706</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08948198588760957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05912122328118082</v>
+        <v>0.06081195897045309</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1402487954525227</v>
+        <v>0.1395727931864319</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02707900787809851</v>
+        <v>0.02734473663064389</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04724638339331675</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5988776417206723</v>
+        <v>0.6010428930394899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06007901482881692</v>
+        <v>0.05941323289936255</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1768945424862401</v>
+        <v>0.1774756416264218</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.005554490447891377</v>
       </c>
       <c r="E14" t="n">
-        <v>1.161866345382703</v>
+        <v>1.164615615937884</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08860644255696133</v>
+        <v>-0.088835670107234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3058167889134782</v>
+        <v>0.3063453263223871</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06635425706510335</v>
       </c>
       <c r="E15" t="n">
-        <v>1.810447448278074</v>
+        <v>1.812993772148619</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.259672977128279</v>
+        <v>-0.2590568368339156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4879490279657929</v>
+        <v>0.4882264371030656</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.131996740104435</v>
       </c>
       <c r="E16" t="n">
-        <v>2.436153977733179</v>
+        <v>2.439199638050814</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4973133245007607</v>
+        <v>-0.4963423925203064</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6049762625963979</v>
+        <v>0.6054843593320341</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1996689485484204</v>
       </c>
       <c r="E17" t="n">
-        <v>3.046760689832106</v>
+        <v>3.049933374333651</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.631078550445543</v>
+        <v>-0.6302404828413614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7918726385693476</v>
+        <v>0.7922288903035294</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2669846796484719</v>
       </c>
       <c r="E18" t="n">
-        <v>3.6440430030534</v>
+        <v>3.647988052995035</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7542934688854189</v>
+        <v>-0.7531371107974193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9353647048957637</v>
+        <v>0.9353530245110364</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3346115566271848</v>
       </c>
       <c r="E19" t="n">
-        <v>4.17846294572062</v>
+        <v>4.182108685803619</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9129379142992854</v>
+        <v>-0.9117421349128312</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087433093708177</v>
+        <v>1.087561577940177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4033861595587635</v>
       </c>
       <c r="E20" t="n">
-        <v>4.722162954053656</v>
+        <v>4.725394040478837</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.126852480194501</v>
+        <v>-1.126026092975046</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246943347639953</v>
+        <v>1.246854284706407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4695915881928151</v>
       </c>
       <c r="E21" t="n">
-        <v>5.180543592146351</v>
+        <v>5.183840380735623</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28355798174364</v>
+        <v>-1.282487766493004</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422683496150269</v>
+        <v>1.422682036102178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5271241271209655</v>
       </c>
       <c r="E22" t="n">
-        <v>5.585854402230697</v>
+        <v>5.588313123215787</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.490537319207039</v>
+        <v>-1.489560547034221</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539421641258874</v>
+        <v>1.538954425869783</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5716256336961818</v>
       </c>
       <c r="E23" t="n">
-        <v>5.856414453908897</v>
+        <v>5.859067361290078</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.669070539715264</v>
+        <v>-1.668521561633083</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699692580246013</v>
+        <v>1.699422471349195</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6017558274792932</v>
       </c>
       <c r="E24" t="n">
-        <v>6.162206926068815</v>
+        <v>6.164334216137268</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.841846790601036</v>
+        <v>-1.841592742233218</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815030539235437</v>
+        <v>1.814196851775528</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6186943526956138</v>
       </c>
       <c r="E25" t="n">
-        <v>6.376084990761758</v>
+        <v>6.377423854861121</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.976955260789454</v>
+        <v>-1.976804875836091</v>
       </c>
       <c r="G25" t="n">
-        <v>1.918196077290954</v>
+        <v>1.917492334111136</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6246821908112515</v>
       </c>
       <c r="E26" t="n">
-        <v>6.476588861147548</v>
+        <v>6.477753979524094</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084504593237925</v>
+        <v>-2.084315517010153</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981890675256846</v>
+        <v>1.981124150009119</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.621963759445927</v>
       </c>
       <c r="E27" t="n">
-        <v>6.530095243535079</v>
+        <v>6.531045734842261</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.173219305313674</v>
+        <v>-2.173022198821402</v>
       </c>
       <c r="G27" t="n">
-        <v>2.064393612729824</v>
+        <v>2.063609566905006</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.613234214890881</v>
       </c>
       <c r="E28" t="n">
-        <v>6.64104283791514</v>
+        <v>6.641875065326959</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233890143683294</v>
+        <v>-2.233250642619476</v>
       </c>
       <c r="G28" t="n">
-        <v>2.094126032053089</v>
+        <v>2.093225182380998</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6006749796795984</v>
       </c>
       <c r="E29" t="n">
-        <v>6.578384874093794</v>
+        <v>6.578974733522521</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294492359792642</v>
+        <v>-2.293681303078142</v>
       </c>
       <c r="G29" t="n">
-        <v>2.141085558800985</v>
+        <v>2.139894159558804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5847883798941309</v>
       </c>
       <c r="E30" t="n">
-        <v>6.542477911394077</v>
+        <v>6.543847436503349</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330464294632405</v>
+        <v>-2.329426930463814</v>
       </c>
       <c r="G30" t="n">
-        <v>2.126042683320353</v>
+        <v>2.12460745604699</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5656034370890267</v>
       </c>
       <c r="E31" t="n">
-        <v>6.453882193237736</v>
+        <v>6.4550765125761</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.312761211530137</v>
+        <v>-2.311589522937183</v>
       </c>
       <c r="G31" t="n">
-        <v>2.110329645765994</v>
+        <v>2.108332299977631</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5426326218497629</v>
       </c>
       <c r="E32" t="n">
-        <v>6.280091208928783</v>
+        <v>6.280844593743692</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.318659075793363</v>
+        <v>-2.31721727830359</v>
       </c>
       <c r="G32" t="n">
-        <v>2.046559125299374</v>
+        <v>2.044808527638375</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5152324946100476</v>
       </c>
       <c r="E33" t="n">
-        <v>6.093859154837197</v>
+        <v>6.095320662976197</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.342700227658265</v>
+        <v>-2.341023362425857</v>
       </c>
       <c r="G33" t="n">
-        <v>1.980069995287483</v>
+        <v>1.978469782579847</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4832211954527271</v>
       </c>
       <c r="E34" t="n">
-        <v>5.856256768715078</v>
+        <v>5.857199959781806</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.383353076677481</v>
+        <v>-2.382393095057709</v>
       </c>
       <c r="G34" t="n">
-        <v>1.897685321709869</v>
+        <v>1.89567921563296</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4471372108818836</v>
       </c>
       <c r="E35" t="n">
-        <v>5.630984488720685</v>
+        <v>5.63211748603923</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371434704111394</v>
+        <v>-2.370238194700894</v>
       </c>
       <c r="G35" t="n">
-        <v>1.829337550478251</v>
+        <v>1.827129957764797</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4082228022503964</v>
       </c>
       <c r="E36" t="n">
-        <v>5.441410384549008</v>
+        <v>5.44260178379119</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.331104525720268</v>
+        <v>-2.330185425447041</v>
       </c>
       <c r="G36" t="n">
-        <v>1.742083616517456</v>
+        <v>1.739800101303275</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3680235695274756</v>
       </c>
       <c r="E37" t="n">
-        <v>5.08058577974656</v>
+        <v>5.081248641579832</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271910525994602</v>
+        <v>-2.27069357591083</v>
       </c>
       <c r="G37" t="n">
-        <v>1.653334593311571</v>
+        <v>1.651649697814662</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3281656632308686</v>
       </c>
       <c r="E38" t="n">
-        <v>4.804230797195543</v>
+        <v>4.805143327252361</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165489080696358</v>
+        <v>-2.164546619653676</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551494778922598</v>
+        <v>1.550480045499417</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2891720653459318</v>
       </c>
       <c r="E39" t="n">
-        <v>4.50988656211644</v>
+        <v>4.511259007321894</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.14728009093059</v>
+        <v>-2.146462463999681</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438875429478447</v>
+        <v>1.438094303749811</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2509359097972264</v>
       </c>
       <c r="E40" t="n">
-        <v>4.242001318540785</v>
+        <v>4.243275940524148</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118567515198825</v>
+        <v>-2.117662285382462</v>
       </c>
       <c r="G40" t="n">
-        <v>1.38495877357737</v>
+        <v>1.38375277385428</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2130690485205139</v>
       </c>
       <c r="E41" t="n">
-        <v>3.949079170302227</v>
+        <v>3.950082223340682</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028789888112895</v>
+        <v>-2.027902908897668</v>
       </c>
       <c r="G41" t="n">
-        <v>1.264148554343221</v>
+        <v>1.263211203468857</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1760011569492614</v>
       </c>
       <c r="E42" t="n">
-        <v>3.695674683692205</v>
+        <v>3.696433908699477</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.93421746309642</v>
+        <v>-1.93336479501133</v>
       </c>
       <c r="G42" t="n">
-        <v>1.15898567049934</v>
+        <v>1.158165123472249</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1404740984429969</v>
       </c>
       <c r="E43" t="n">
-        <v>3.423991855032095</v>
+        <v>3.425016808791913</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.866187252324575</v>
+        <v>-1.86551198008253</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065482730709456</v>
+        <v>1.064891411232638</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1068526434168739</v>
       </c>
       <c r="E44" t="n">
-        <v>3.155518212075804</v>
+        <v>3.156470163431076</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.826335239683222</v>
+        <v>-1.825613975926313</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9311072046626739</v>
+        <v>0.9305582265804923</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.07471683059255771</v>
       </c>
       <c r="E45" t="n">
-        <v>2.897505813690873</v>
+        <v>2.898714733510146</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.744369599907698</v>
+        <v>-1.743389907638699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.811713232076706</v>
+        <v>0.810897065193888</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.0430296499919933</v>
       </c>
       <c r="E46" t="n">
-        <v>2.650226228822212</v>
+        <v>2.651008814598939</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69678079243262</v>
+        <v>-1.695752918576621</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7701296023995353</v>
+        <v>0.7694550601815355</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01061502554010066</v>
       </c>
       <c r="E47" t="n">
-        <v>2.349900176714657</v>
+        <v>2.350787885953929</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.649987711167088</v>
+        <v>-1.648749590385997</v>
       </c>
       <c r="G47" t="n">
-        <v>0.663903803545473</v>
+        <v>0.6631489586824731</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02324161995789465</v>
       </c>
       <c r="E48" t="n">
-        <v>2.159346380273981</v>
+        <v>2.159958140424071</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.615597738433824</v>
+        <v>-1.614676448088461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6013392828019443</v>
+        <v>0.6007771642869445</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.05867697047347113</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961647108476397</v>
+        <v>1.962305590165397</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567718381388655</v>
+        <v>-1.566506541473201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5405253597194152</v>
+        <v>0.5399515608196881</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.09518307518339343</v>
       </c>
       <c r="E50" t="n">
-        <v>1.8511550491007</v>
+        <v>1.851286453428881</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.495121870212493</v>
+        <v>-1.493766945584129</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4793143035561589</v>
+        <v>0.4786310010496136</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1317889212156302</v>
       </c>
       <c r="E51" t="n">
-        <v>1.673699344083565</v>
+        <v>1.674414767648111</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.438826795971326</v>
+        <v>-1.437236803600326</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4205313073680838</v>
+        <v>0.4200655520270839</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.167500982052764</v>
       </c>
       <c r="E52" t="n">
-        <v>1.55535368602687</v>
+        <v>1.556111450986052</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.399614284393791</v>
+        <v>-1.397873907069428</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3399249723651963</v>
+        <v>0.3394562969280146</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2017552685851428</v>
       </c>
       <c r="E53" t="n">
-        <v>1.37997708949119</v>
+        <v>1.380483726178735</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.361147857390711</v>
+        <v>-1.359706789924984</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2725539733063962</v>
+        <v>0.2722181622454872</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2345524172841346</v>
       </c>
       <c r="E54" t="n">
-        <v>1.325774264164295</v>
+        <v>1.326819658597386</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.342028527640261</v>
+        <v>-1.340825448013352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2225502462889551</v>
+        <v>0.2217793408969553</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2662365675927665</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205184512191873</v>
+        <v>1.205505722771873</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304968126948726</v>
+        <v>-1.304081877757544</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1634387392804255</v>
+        <v>0.1634416593766073</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2982137176450361</v>
       </c>
       <c r="E56" t="n">
-        <v>1.174230032616518</v>
+        <v>1.174971737046699</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.253343746550376</v>
+        <v>-1.25212898653874</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1021751213858965</v>
+        <v>0.1023868283590783</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3308241902419148</v>
       </c>
       <c r="E57" t="n">
-        <v>1.082458709862451</v>
+        <v>1.083660329441269</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243787731795378</v>
+        <v>-1.242904402700379</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05861166649745368</v>
+        <v>0.05892411678890814</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3637637534034071</v>
       </c>
       <c r="E58" t="n">
-        <v>1.02801935674483</v>
+        <v>1.029311499305284</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205962265904207</v>
+        <v>-1.205296483974752</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01907603237170728</v>
+        <v>-0.01844967174070745</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3961861854014611</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9198458537374952</v>
+        <v>0.9209248292766766</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.122638781404138</v>
+        <v>-1.121759832453411</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09559423272005037</v>
+        <v>-0.09512701733095959</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4269709099633215</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8927605016030479</v>
+        <v>0.8945753413800474</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.103233282227871</v>
+        <v>-1.102463836883962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1227817882208612</v>
+        <v>-0.1223233331203159</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4560304195256005</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7604582438453561</v>
+        <v>0.7622979044399011</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.074474714981242</v>
+        <v>-1.073389899249697</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1524032438892169</v>
+        <v>-0.1516586193628535</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4835136306507073</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7217625892920029</v>
+        <v>0.7230956131990025</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.069231682286789</v>
+        <v>-1.06806072371788</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2262656167601971</v>
+        <v>-0.2259458662282881</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5104094020496149</v>
       </c>
       <c r="E63" t="n">
-        <v>0.630224874232482</v>
+        <v>0.631663021602027</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103642095693325</v>
+        <v>-1.102643422799144</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2418516301306474</v>
+        <v>-0.2415318795987385</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5375942232264993</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5380534983015067</v>
+        <v>0.5398873187036881</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.090332297296601</v>
+        <v>-1.089262082045965</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2935533930778154</v>
+        <v>-0.292919732206361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5645744182154233</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4520245446889844</v>
+        <v>0.4541824957673475</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057764464580792</v>
+        <v>-1.056662128272156</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3273943877288972</v>
+        <v>-0.326311032045443</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5900643776229183</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4041232869224518</v>
+        <v>0.4060184293444513</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072970865447606</v>
+        <v>-1.072161998805243</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3557791826642532</v>
+        <v>-0.354742548519708</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6122161747935223</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3738769306711872</v>
+        <v>0.3761268647792775</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.092173417939237</v>
+        <v>-1.091126563458056</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3908728985773347</v>
+        <v>-0.3894245308711533</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6297362377696455</v>
       </c>
       <c r="E68" t="n">
-        <v>0.293921777116845</v>
+        <v>0.2965206627186625</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106484809326324</v>
+        <v>-1.105744564944234</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3999894388569686</v>
+        <v>-0.3988783422597871</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6427045545393474</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1885442662036006</v>
+        <v>0.1913183575763271</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146879959857495</v>
+        <v>-1.146516407882859</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4244452443796893</v>
+        <v>-0.4230859396070533</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6511965705594931</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1257475978136175</v>
+        <v>0.1282588805299804</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194966643731573</v>
+        <v>-1.194689234594301</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.440618197082685</v>
+        <v>-0.4393596356283217</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.655217810977518</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07669290205526701</v>
+        <v>0.07885523327790278</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279211418577005</v>
+        <v>-1.279509268387551</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5001852390955781</v>
+        <v>-0.499227447547942</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6541323305338873</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01117863224798213</v>
+        <v>-0.008700930637710068</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315287746855268</v>
+        <v>-1.315677579695541</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4941946617785797</v>
+        <v>-0.4931916087401254</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.647086687919153</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02440958804779676</v>
+        <v>-0.02194356682225197</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305868976620816</v>
+        <v>-1.305988700564271</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5441166261029299</v>
+        <v>-0.5431048127759303</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6339721201637143</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005946271810285999</v>
+        <v>0.008402072699194432</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.34633274941226</v>
+        <v>-1.34622032570926</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5280210559487525</v>
+        <v>-0.5273333732979344</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6143721564342693</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01112068224446643</v>
+        <v>0.01356188265246577</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395745156952883</v>
+        <v>-1.395975844551247</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4795854205809473</v>
+        <v>-0.4786407694661293</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5879434882457599</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06353640870808872</v>
+        <v>0.06600535002981532</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342365798749261</v>
+        <v>-1.342443181298079</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4902058103942171</v>
+        <v>-0.4892202779328538</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5538726485191356</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1763922859429675</v>
+        <v>0.1791138155844213</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340520297962353</v>
+        <v>-1.340634181713443</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4355313895339591</v>
+        <v>-0.434621779573323</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.511982539481233</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2630490602345806</v>
+        <v>0.2651442292450346</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306361012827453</v>
+        <v>-1.306631121724271</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4358175589597772</v>
+        <v>-0.4352904815989592</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4632904078562332</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3563169322818283</v>
+        <v>0.3581463725397369</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.324839381465993</v>
+        <v>-1.324018834438902</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4039286486062403</v>
+        <v>-0.4034030312935132</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4092235335514453</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4612243077098001</v>
+        <v>0.4622624019024362</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.339025208717262</v>
+        <v>-1.338622235444171</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3451033110235288</v>
+        <v>-0.3447543595298017</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3510294318552688</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5614025873713187</v>
+        <v>0.562245035119773</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286583201388003</v>
+        <v>-1.286443036771276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2931650202856337</v>
+        <v>-0.2929781341299973</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2902674102046032</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6992836888843725</v>
+        <v>0.6995508776850089</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222825821354202</v>
+        <v>-1.222376126542202</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2600949310265517</v>
+        <v>-0.2598262821778244</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2281353788276653</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8560986940403305</v>
+        <v>0.8559176480770577</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165314527053309</v>
+        <v>-1.165488272776127</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2167315027265633</v>
+        <v>-0.2164409531564725</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1661090998507461</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026635231154648</v>
+        <v>1.026061432254921</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075247080421333</v>
+        <v>-1.07504997392906</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1646428270353046</v>
+        <v>-0.1650574806931226</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.106179237055587</v>
       </c>
       <c r="E85" t="n">
-        <v>1.123210112127804</v>
+        <v>1.122039153558895</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005607166629261</v>
+        <v>-1.005004166767715</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1304791617561319</v>
+        <v>-0.1307843118071318</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05015053003466395</v>
       </c>
       <c r="E86" t="n">
-        <v>1.290254214208668</v>
+        <v>1.288588299336942</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9294539783036446</v>
+        <v>-0.9286378114208267</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04520797310279118</v>
+        <v>-0.04560510618351834</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.001641060287449514</v>
       </c>
       <c r="E87" t="n">
-        <v>1.387262729464824</v>
+        <v>1.385801221325825</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8293998027298534</v>
+        <v>-0.8283850693066718</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01590480791825359</v>
+        <v>-0.01653554869352615</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04914640459955374</v>
       </c>
       <c r="E88" t="n">
-        <v>1.474789692418619</v>
+        <v>1.473225980913256</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7007973068345242</v>
+        <v>-0.6999884401921608</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0354363231504599</v>
+        <v>0.03487858477973278</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0903787340822179</v>
       </c>
       <c r="E89" t="n">
-        <v>1.572459609459956</v>
+        <v>1.570806835021048</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5700339397646502</v>
+        <v>-0.5687257366751961</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08059561060226596</v>
+        <v>0.080051012664357</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1221055117397581</v>
       </c>
       <c r="E90" t="n">
-        <v>1.63401961711694</v>
+        <v>1.632111334262122</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4405305941972305</v>
+        <v>-0.4396151440442307</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09430400212780773</v>
+        <v>0.09367034125635336</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1409767347431211</v>
       </c>
       <c r="E91" t="n">
-        <v>1.6792825679832</v>
+        <v>1.677038474067474</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2819562310917276</v>
+        <v>-0.2805837858862734</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1091410108276219</v>
+        <v>0.1082489214440767</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1465697634574171</v>
       </c>
       <c r="E92" t="n">
-        <v>1.709039808124011</v>
+        <v>1.706900837670829</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1210779120987708</v>
+        <v>-0.1202354643503165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1040439829422597</v>
+        <v>0.1036804309676234</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1398861351036157</v>
       </c>
       <c r="E93" t="n">
-        <v>1.705007155296921</v>
+        <v>1.703072591576467</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03819873413845916</v>
+        <v>0.03886597611600443</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09983174419998807</v>
+        <v>0.09952659414898814</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1234263546156051</v>
       </c>
       <c r="E94" t="n">
-        <v>1.653844150095298</v>
+        <v>1.65185556459548</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1494733792908838</v>
+        <v>0.1498486116502473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0606805546422713</v>
+        <v>0.06048636824618044</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1015059017959783</v>
       </c>
       <c r="E95" t="n">
-        <v>1.564941821839867</v>
+        <v>1.562542962826504</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2348905727533154</v>
+        <v>0.2349752555425881</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01191494840592076</v>
+        <v>0.01169594119228446</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07678546131810084</v>
       </c>
       <c r="E96" t="n">
-        <v>1.441185225558264</v>
+        <v>1.439119257509629</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3144091719284759</v>
+        <v>0.3145215956314759</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02875615121443196</v>
+        <v>-0.02888025530215919</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05147434663426566</v>
       </c>
       <c r="E97" t="n">
-        <v>1.287087369899487</v>
+        <v>1.285022861898943</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3633499839357355</v>
+        <v>0.3636755746600081</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04974142242506269</v>
+        <v>-0.04963775901060816</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02531540559508989</v>
       </c>
       <c r="E98" t="n">
-        <v>1.15349004948516</v>
+        <v>1.151533585043342</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3821831442603668</v>
+        <v>0.3826635000822757</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08708361239814356</v>
+        <v>-0.08699016932032541</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>9.828471321612891e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9980066081881105</v>
+        <v>0.9966852646658382</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3774511283977317</v>
+        <v>0.3776949564289134</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.12759994692086</v>
+        <v>-0.1273823997553146</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02653521319133</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8886183451691398</v>
+        <v>0.887591931361231</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3466368134391036</v>
+        <v>0.3467448569978309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1423712534565833</v>
+        <v>-0.1420281421552197</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05260204088723274</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7467790532816325</v>
+        <v>0.7462592761612691</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3473551570998307</v>
+        <v>0.3475435033035579</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1346286184304944</v>
+        <v>-0.1343220083314036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08373579159822922</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6341889047992991</v>
+        <v>0.6333011955600266</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3046326899117512</v>
+        <v>0.3049714210688421</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945343916004784</v>
+        <v>-0.1945475320332965</v>
       </c>
     </row>
   </sheetData>
